--- a/training/output/CNN/W/W2_W3.xlsx
+++ b/training/output/CNN/W/W2_W3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.6241666666666666</v>
+        <v>0.2025</v>
       </c>
       <c r="B2" t="n">
-        <v>2.85950870513916</v>
+        <v>3.093540966510773</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.895</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>2.179126482009888</v>
+        <v>2.892094492912292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9125</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="B4" t="n">
-        <v>1.983104000091553</v>
+        <v>2.82932060956955</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="B5" t="n">
-        <v>1.823029088973999</v>
+        <v>2.769037187099457</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>1.754721097946167</v>
+        <v>2.689420878887177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.95</v>
+        <v>0.3552083333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>1.624358406066895</v>
+        <v>2.662762105464935</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9575</v>
+        <v>0.3752083333333333</v>
       </c>
       <c r="B8" t="n">
-        <v>1.618338403701782</v>
+        <v>2.650586068630219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9425</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>1.617285928726196</v>
+        <v>2.633442580699921</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.95</v>
+        <v>0.4058333333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>1.565942873954773</v>
+        <v>2.595250010490417</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.95</v>
+        <v>0.40375</v>
       </c>
       <c r="B11" t="n">
-        <v>1.538535189628601</v>
+        <v>2.614021956920624</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.955</v>
+        <v>0.3735416666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>1.542071251869202</v>
+        <v>2.578646004199982</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.96</v>
+        <v>0.40625</v>
       </c>
       <c r="B13" t="n">
-        <v>1.498268103599548</v>
+        <v>2.54214334487915</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9625</v>
+        <v>0.3835416666666667</v>
       </c>
       <c r="B14" t="n">
-        <v>1.509737439155579</v>
+        <v>2.537101566791534</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9625</v>
+        <v>0.38875</v>
       </c>
       <c r="B15" t="n">
-        <v>1.507070651054382</v>
+        <v>2.514192283153534</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9725</v>
+        <v>0.4389583333333333</v>
       </c>
       <c r="B16" t="n">
-        <v>1.484992480278015</v>
+        <v>2.475211083889008</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.96</v>
+        <v>0.4239583333333333</v>
       </c>
       <c r="B17" t="n">
-        <v>1.491819877624512</v>
+        <v>2.457115828990936</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.975</v>
+        <v>0.4141666666666667</v>
       </c>
       <c r="B18" t="n">
-        <v>1.488867793083191</v>
+        <v>2.434468686580658</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.446875</v>
       </c>
       <c r="B19" t="n">
-        <v>1.473162145614624</v>
+        <v>2.427692532539368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9658333333333333</v>
+        <v>0.4866666666666667</v>
       </c>
       <c r="B20" t="n">
-        <v>1.460373554229736</v>
+        <v>2.423996031284332</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9825</v>
+        <v>0.3760416666666667</v>
       </c>
       <c r="B21" t="n">
-        <v>1.454174356460571</v>
+        <v>2.391993045806885</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.4014583333333333</v>
       </c>
       <c r="B22" t="n">
-        <v>1.458976545333862</v>
+        <v>2.367599308490753</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9775</v>
+        <v>0.4110416666666667</v>
       </c>
       <c r="B23" t="n">
-        <v>1.43828320980072</v>
+        <v>2.403612375259399</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.975</v>
+        <v>0.418125</v>
       </c>
       <c r="B24" t="n">
-        <v>1.448949933052063</v>
+        <v>2.360205471515656</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.975</v>
+        <v>0.4414583333333333</v>
       </c>
       <c r="B25" t="n">
-        <v>1.449276247024536</v>
+        <v>2.337667524814606</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9775</v>
+        <v>0.4645833333333333</v>
       </c>
       <c r="B26" t="n">
-        <v>1.442826271057129</v>
+        <v>2.314453721046448</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9725</v>
+        <v>0.5133333333333333</v>
       </c>
       <c r="B27" t="n">
-        <v>1.448470320701599</v>
+        <v>2.3318812251091</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.464375</v>
       </c>
       <c r="B28" t="n">
-        <v>1.436620759963989</v>
+        <v>2.334818661212921</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9708333333333333</v>
+        <v>0.514375</v>
       </c>
       <c r="B29" t="n">
-        <v>1.429081349372864</v>
+        <v>2.288701295852661</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9725</v>
+        <v>0.4725</v>
       </c>
       <c r="B30" t="n">
-        <v>1.427799110412598</v>
+        <v>2.283988237380981</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.5197916666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>1.43850296497345</v>
+        <v>2.313086211681366</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.98</v>
+        <v>0.4670833333333334</v>
       </c>
       <c r="B32" t="n">
-        <v>1.429736037254334</v>
+        <v>2.323249757289886</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.98</v>
+        <v>0.4772916666666667</v>
       </c>
       <c r="B33" t="n">
-        <v>1.427035708427429</v>
+        <v>2.267245709896088</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.98</v>
+        <v>0.4847916666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>1.419878120422363</v>
+        <v>2.261780917644501</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9675</v>
+        <v>0.4820833333333333</v>
       </c>
       <c r="B35" t="n">
-        <v>1.426628770828247</v>
+        <v>2.221131265163422</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.975</v>
+        <v>0.4795833333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>1.422592620849609</v>
+        <v>2.208650767803192</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.975</v>
+        <v>0.5002083333333334</v>
       </c>
       <c r="B37" t="n">
-        <v>1.417050614356995</v>
+        <v>2.181114256381989</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9725</v>
+        <v>0.51</v>
       </c>
       <c r="B38" t="n">
-        <v>1.424427542686462</v>
+        <v>2.187805414199829</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.98</v>
+        <v>0.5564583333333334</v>
       </c>
       <c r="B39" t="n">
-        <v>1.41768904209137</v>
+        <v>2.193786680698395</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9775</v>
+        <v>0.4920833333333333</v>
       </c>
       <c r="B40" t="n">
-        <v>1.421440162658691</v>
+        <v>2.229248881340027</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9675</v>
+        <v>0.5314583333333334</v>
       </c>
       <c r="B41" t="n">
-        <v>1.440817995071411</v>
+        <v>2.218334972858429</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9775</v>
+        <v>0.505</v>
       </c>
       <c r="B42" t="n">
-        <v>1.41927978515625</v>
+        <v>2.158210515975952</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9725</v>
+        <v>0.5439583333333333</v>
       </c>
       <c r="B43" t="n">
-        <v>1.410995688438416</v>
+        <v>2.128576338291168</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9575</v>
+        <v>0.55625</v>
       </c>
       <c r="B44" t="n">
-        <v>1.414340744018555</v>
+        <v>2.089775323867798</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9625</v>
+        <v>0.543125</v>
       </c>
       <c r="B45" t="n">
-        <v>1.434598503112793</v>
+        <v>2.064034044742584</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.975</v>
+        <v>0.5535416666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>1.420337500572205</v>
+        <v>2.132832884788513</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9825</v>
+        <v>0.5616666666666666</v>
       </c>
       <c r="B47" t="n">
-        <v>1.409102411270142</v>
+        <v>2.069020092487335</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9775</v>
+        <v>0.5566666666666666</v>
       </c>
       <c r="B48" t="n">
-        <v>1.435481252670288</v>
+        <v>2.051677852869034</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9675</v>
+        <v>0.5489583333333333</v>
       </c>
       <c r="B49" t="n">
-        <v>1.437432947158813</v>
+        <v>2.068291693925858</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9725</v>
+        <v>0.5441666666666667</v>
       </c>
       <c r="B50" t="n">
-        <v>1.419305834770203</v>
+        <v>2.019111722707748</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9725</v>
+        <v>0.5335416666666667</v>
       </c>
       <c r="B51" t="n">
-        <v>1.410849184989929</v>
+        <v>2.028879582881927</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9725</v>
+        <v>0.5539583333333333</v>
       </c>
       <c r="B52" t="n">
-        <v>1.417307453155518</v>
+        <v>2.04701766371727</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9725</v>
+        <v>0.5341666666666667</v>
       </c>
       <c r="B53" t="n">
-        <v>1.420748000144958</v>
+        <v>2.023442536592484</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9725</v>
+        <v>0.545625</v>
       </c>
       <c r="B54" t="n">
-        <v>1.407637100219727</v>
+        <v>1.995347231626511</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9775</v>
+        <v>0.56875</v>
       </c>
       <c r="B55" t="n">
-        <v>1.406493897438049</v>
+        <v>1.978885412216187</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9775</v>
+        <v>0.5991666666666666</v>
       </c>
       <c r="B56" t="n">
-        <v>1.407366962432861</v>
+        <v>1.997763723134995</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.5564583333333334</v>
       </c>
       <c r="B57" t="n">
-        <v>1.420311975479126</v>
+        <v>1.935502350330353</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9558333333333333</v>
+        <v>0.5664583333333334</v>
       </c>
       <c r="B58" t="n">
-        <v>1.410546984672546</v>
+        <v>1.950344145298004</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9725</v>
+        <v>0.5895833333333333</v>
       </c>
       <c r="B59" t="n">
-        <v>1.405521492958069</v>
+        <v>1.939090758562088</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9675</v>
+        <v>0.6114583333333334</v>
       </c>
       <c r="B60" t="n">
-        <v>1.40005247592926</v>
+        <v>1.929632663726807</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9725</v>
+        <v>0.596875</v>
       </c>
       <c r="B61" t="n">
-        <v>1.407035732269287</v>
+        <v>1.959323346614838</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.975</v>
+        <v>0.6214583333333333</v>
       </c>
       <c r="B62" t="n">
-        <v>1.414065661430359</v>
+        <v>1.931162685155869</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9625</v>
+        <v>0.5814583333333334</v>
       </c>
       <c r="B63" t="n">
-        <v>1.410242371559143</v>
+        <v>1.897970497608185</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.965</v>
+        <v>0.594375</v>
       </c>
       <c r="B64" t="n">
-        <v>1.401598749160767</v>
+        <v>1.856366604566574</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9725</v>
+        <v>0.5614583333333334</v>
       </c>
       <c r="B65" t="n">
-        <v>1.405298266410828</v>
+        <v>1.892831236124039</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.98</v>
+        <v>0.6320833333333333</v>
       </c>
       <c r="B66" t="n">
-        <v>1.402840309143066</v>
+        <v>1.838502377271652</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9775</v>
+        <v>0.6472916666666666</v>
       </c>
       <c r="B67" t="n">
-        <v>1.421880211830139</v>
+        <v>1.853453487157822</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.98</v>
+        <v>0.629375</v>
       </c>
       <c r="B68" t="n">
-        <v>1.404096179008484</v>
+        <v>1.821313083171844</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.98</v>
+        <v>0.6275000000000001</v>
       </c>
       <c r="B69" t="n">
-        <v>1.40259361743927</v>
+        <v>1.808371484279633</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.975</v>
+        <v>0.6570833333333334</v>
       </c>
       <c r="B70" t="n">
-        <v>1.403243050575256</v>
+        <v>1.71446493268013</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.975</v>
+        <v>0.626875</v>
       </c>
       <c r="B71" t="n">
-        <v>1.39968629360199</v>
+        <v>1.738047778606415</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.975</v>
+        <v>0.6697916666666667</v>
       </c>
       <c r="B72" t="n">
-        <v>1.409425621032715</v>
+        <v>1.861588358879089</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.96</v>
+        <v>0.6214583333333333</v>
       </c>
       <c r="B73" t="n">
-        <v>1.415994563102722</v>
+        <v>1.793786495923996</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.6722916666666666</v>
       </c>
       <c r="B74" t="n">
-        <v>1.427947974205017</v>
+        <v>1.755849033594131</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.6747916666666667</v>
       </c>
       <c r="B75" t="n">
-        <v>1.410119166374207</v>
+        <v>1.724237322807312</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9708333333333333</v>
+        <v>0.6470833333333333</v>
       </c>
       <c r="B76" t="n">
-        <v>1.399337177276611</v>
+        <v>1.706792742013931</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.975</v>
+        <v>0.6641666666666666</v>
       </c>
       <c r="B77" t="n">
-        <v>1.405300512313843</v>
+        <v>1.668102115392685</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.975</v>
+        <v>0.6695833333333333</v>
       </c>
       <c r="B78" t="n">
-        <v>1.40017632484436</v>
+        <v>1.64389756321907</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.975</v>
+        <v>0.6525</v>
       </c>
       <c r="B79" t="n">
-        <v>1.400100650787353</v>
+        <v>1.641381561756134</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9775</v>
+        <v>0.6802083333333333</v>
       </c>
       <c r="B80" t="n">
-        <v>1.398384609222412</v>
+        <v>1.611628890037537</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9683333333333333</v>
+        <v>0.6802083333333333</v>
       </c>
       <c r="B81" t="n">
-        <v>1.400394463539123</v>
+        <v>1.611476480960846</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.7024999999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>1.400424456596375</v>
+        <v>1.667321741580963</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9775</v>
+        <v>0.6904166666666667</v>
       </c>
       <c r="B83" t="n">
-        <v>1.409191255569458</v>
+        <v>1.598689407110214</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.98</v>
+        <v>0.733125</v>
       </c>
       <c r="B84" t="n">
-        <v>1.403204464912414</v>
+        <v>1.553731054067612</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.975</v>
+        <v>0.7025</v>
       </c>
       <c r="B85" t="n">
-        <v>1.39901792049408</v>
+        <v>1.626400142908096</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9675</v>
+        <v>0.7202083333333333</v>
       </c>
       <c r="B86" t="n">
-        <v>1.405200939178467</v>
+        <v>1.540471822023392</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.975</v>
+        <v>0.7025</v>
       </c>
       <c r="B87" t="n">
-        <v>1.398633890151977</v>
+        <v>1.569802582263947</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9775</v>
+        <v>0.73</v>
       </c>
       <c r="B88" t="n">
-        <v>1.396719565391541</v>
+        <v>1.53965100646019</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.98</v>
+        <v>0.7152083333333333</v>
       </c>
       <c r="B89" t="n">
-        <v>1.398393940925598</v>
+        <v>1.516597211360931</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9825</v>
+        <v>0.7225</v>
       </c>
       <c r="B90" t="n">
-        <v>1.39797055721283</v>
+        <v>1.51758223772049</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9775</v>
+        <v>0.745625</v>
       </c>
       <c r="B91" t="n">
-        <v>1.399649310112</v>
+        <v>1.48123425245285</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9825</v>
+        <v>0.725</v>
       </c>
       <c r="B92" t="n">
-        <v>1.398552083969116</v>
+        <v>1.625531286001205</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9733333333333333</v>
+        <v>0.7327083333333334</v>
       </c>
       <c r="B93" t="n">
-        <v>1.400181536674499</v>
+        <v>1.538064688444138</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9775</v>
+        <v>0.7702083333333334</v>
       </c>
       <c r="B94" t="n">
-        <v>1.398931031227112</v>
+        <v>1.487432897090912</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.98</v>
+        <v>0.7527083333333333</v>
       </c>
       <c r="B95" t="n">
-        <v>1.397497482299805</v>
+        <v>1.464395135641098</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.985</v>
+        <v>0.7629166666666667</v>
       </c>
       <c r="B96" t="n">
-        <v>1.40420398235321</v>
+        <v>1.479564428329468</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9625</v>
+        <v>0.7527083333333334</v>
       </c>
       <c r="B97" t="n">
-        <v>1.397918286323547</v>
+        <v>1.462830632925034</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.98</v>
+        <v>0.788125</v>
       </c>
       <c r="B98" t="n">
-        <v>1.399133768081665</v>
+        <v>1.402958601713181</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.985</v>
+        <v>0.798125</v>
       </c>
       <c r="B99" t="n">
-        <v>1.396141319274902</v>
+        <v>1.411417901515961</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9875</v>
+        <v>0.8006249999999999</v>
       </c>
       <c r="B100" t="n">
-        <v>1.395471501350403</v>
+        <v>1.382595956325531</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.98</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="B101" t="n">
-        <v>1.410875301361084</v>
+        <v>1.332109451293945</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.8108333333333334</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.341621309518814</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.8054166666666667</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.341577410697937</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.833125</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.327950775623322</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.8335416666666666</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.37950599193573</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.798125</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.390145123004913</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.8279166666666666</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.249895840883255</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.828125</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.317235499620438</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.850625</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.256221324205399</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.863125</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.202659249305725</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.863125</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.235838443040848</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.7958333333333333</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.644925683736801</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.8183333333333334</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.635878443717957</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.8306250000000001</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.344539433717728</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.83625</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.302953481674194</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.8510416666666667</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.261251479387283</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.8558333333333333</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.17990654706955</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.157871574163437</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.8658333333333333</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.19217187166214</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.143720954656601</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9089583333333334</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.097699016332626</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9266666666666666</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.13754591345787</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9345833333333334</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.092634052038193</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9341666666666666</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.070391863584518</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9293750000000001</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.0893594622612</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.914375</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.089893043041229</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9393750000000001</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.050756603479385</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9395833333333333</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.040549263358116</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.944375</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.045729383826256</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9316666666666666</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.04838815331459</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.015425309538841</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9470833333333334</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.010450050234795</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.941875</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.97931008040905</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.941875</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9843574166297913</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9470833333333334</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.975589394569397</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9470833333333334</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.984881266951561</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9445833333333334</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.984863668680191</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9293750000000001</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.038633644580841</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9495833333333333</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.9989619702100754</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.954375</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.9673439711332321</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9570350795984268</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9576370865106583</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9520833333333333</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.9322554916143417</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9569472968578339</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.8239583333333333</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.43141970038414</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9370833333333334</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.112684220075607</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.944375</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.014809131622314</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9397424608469009</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9445833333333334</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.9932375848293304</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9337990283966064</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.8886231631040573</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9520833333333333</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9188631474971771</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9445833333333334</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9170663207769394</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9395833333333333</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9026280790567398</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.8760144412517548</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.8744557499885559</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.8716394007205963</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.8708003312349319</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.8540959805250168</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.8584244847297668</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.83887979388237</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.8289289325475693</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.8455655574798584</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.8409431278705597</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.8301573246717453</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.8553940057754517</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.8171624392271042</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.8466169238090515</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.8300922811031342</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9545833333333333</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.8478527814149857</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.8402149230241776</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.8041121810674667</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.8191962540149689</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.8253108859062195</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9470833333333334</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.8096387535333633</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7963767796754837</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.8289112746715546</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.8164132386445999</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.8041976690292358</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7927456945180893</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.8063905984163284</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7964304089546204</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7997932285070419</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7924142777919769</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7991781532764435</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7874290347099304</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7877391576766968</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7919899970293045</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7803051173686981</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.786953791975975</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7665148228406906</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7687923610210419</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7755047529935837</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7840617895126343</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7689551115036011</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7701931446790695</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7700193971395493</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7858247458934784</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7694839090108871</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7706485986709595</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7725438326597214</v>
       </c>
     </row>
   </sheetData>
